--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530360.091317576</v>
+        <v>527628.5118557506</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>101.9007241714254</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>147.8806937788191</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>51.6469421707139</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>211.182961130578</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>73.55526855148156</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>123.9327888676787</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>1.021650236846412</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>228.5804354448414</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>249.8546355058667</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>44.33162212210961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.9284728855285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.67756722602948</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.97607332171553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>100.2041656279969</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>120.4832454124056</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>67.97896981790605</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>166.0266533411978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>88.27810958517587</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>31.26260713376619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.18842302760083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>515.1387048426961</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>515.1387048426961</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>156.8730062359457</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2492.745963388292</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.977308118178</v>
+        <v>1665.343635143709</v>
       </c>
       <c r="X2" t="n">
-        <v>1766.511549857098</v>
+        <v>1291.87787688263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1376.372217881286</v>
+        <v>901.7385449068179</v>
       </c>
     </row>
     <row r="3">
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.977907210731</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C5" t="n">
-        <v>925.0153902703189</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D5" t="n">
-        <v>925.0153902703189</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>539.2271376720746</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>128.241232882467</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.577747274852</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,37 +4656,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>573.5274298401787</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.804920971789</v>
+        <v>750.4246741269774</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.804920971789</v>
+        <v>750.4246741269774</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.804920971789</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1249.690811658358</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.102221846553</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.039334502983</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.270679232869</v>
+        <v>1510.490272452179</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.804920971789</v>
+        <v>1137.024514191099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1267.804920971789</v>
+        <v>1137.024514191099</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X10" t="n">
-        <v>754.4137587888631</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.621179645333</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,16 +5118,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.076652038817</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.221817693721</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.221817693721</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.462102832032</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859689</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,10 +5838,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856866</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577797</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>489.836033045444</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9229394630509</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>195.0329919651405</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159263</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373306</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1053.171308869725</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>884.2351259418183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>734.1184865294825</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>586.2053929470894</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>439.315445449179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.601903741512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.612352843495</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1234.819773699965</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,22 +6701,22 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>244.1047427675909</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>312.5708431852133</v>
       </c>
       <c r="N9" t="n">
-        <v>96.12069185784512</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.215975890507046</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>280.0296459008364</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>179.8715646913158</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.7861061337734</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345295085</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.69767948409221</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.6085800303792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.31997266427192</v>
+        <v>145.6085800303795</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>45.04089287986321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>99.26785128072179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>86.11098998263023</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58.1558530613933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>186.1428431935221</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117.6435571543365</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631199</v>
+        <v>354580.0968631197</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.6348527531</v>
@@ -26338,22 +26338,22 @@
         <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="N2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="N2" t="n">
-        <v>383394.6348527531</v>
-      </c>
       <c r="O2" t="n">
+        <v>383394.6348527527</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.53656668275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682725</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682718</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682767</v>
-      </c>
       <c r="L4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-485614.3921652021</v>
+        <v>-485800.7855537413</v>
       </c>
       <c r="C6" t="n">
-        <v>97213.3471590917</v>
+        <v>97213.34715909176</v>
       </c>
       <c r="D6" t="n">
-        <v>-58590.45893470341</v>
+        <v>-58590.45893470338</v>
       </c>
       <c r="E6" t="n">
-        <v>-494458.1229186432</v>
+        <v>-494492.8608440791</v>
       </c>
       <c r="F6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="G6" t="n">
-        <v>276594.5684621629</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="H6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="I6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367275</v>
       </c>
       <c r="J6" t="n">
-        <v>100171.3492695702</v>
+        <v>100136.6113441346</v>
       </c>
       <c r="K6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="L6" t="n">
-        <v>276594.5684621629</v>
+        <v>276559.8305367271</v>
       </c>
       <c r="M6" t="n">
-        <v>152386.0577541045</v>
+        <v>152351.3198286689</v>
       </c>
       <c r="N6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="O6" t="n">
-        <v>276594.5684621633</v>
+        <v>276559.8305367272</v>
       </c>
       <c r="P6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367274</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>358.0569158805005</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>297.5940265466991</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>112.6155992416222</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>143.5000804901049</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>340.2289014693134</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>101.1023165904056</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1331359854542</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>120.6605332725717</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>36.4060191522303</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>181.3780332669275</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32786,22 +32786,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>440.401927506967</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>493.8812839474404</v>
       </c>
       <c r="N9" t="n">
-        <v>296.7840672645771</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35419,7 +35419,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36206,13 +36206,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37400,13 +37400,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
